--- a/RIMEDIE/Mat09_2015/Inicial/DINAvsDINO/Comparaciones.xlsx
+++ b/RIMEDIE/Mat09_2015/Inicial/DINAvsDINO/Comparaciones.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -50,15 +50,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -66,13 +96,285 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,75 +681,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
         <v>572539.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>605985.69999999995</v>
+      </c>
+      <c r="D3" s="10">
+        <v>397107.5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>405608.7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>453643</v>
+      </c>
+      <c r="G3" s="11">
+        <v>455964.4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>572387.69999999995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>605833.9</v>
       </c>
+      <c r="D4" s="1">
+        <v>397346.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>405847.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>453753</v>
+      </c>
+      <c r="G4" s="4">
+        <v>456074.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RIMEDIE/Mat09_2015/Inicial/DINAvsDINO/Comparaciones.xlsx
+++ b/RIMEDIE/Mat09_2015/Inicial/DINAvsDINO/Comparaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>AIC</t>
   </si>
@@ -36,12 +36,38 @@
   <si>
     <t>Eje 3</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comparación realizada </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">previo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a los ajustes hechos a los ítems</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,8 +75,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +121,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -314,11 +354,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -335,47 +446,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,43 +831,51 @@
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -750,8 +897,11 @@
       <c r="G3" s="11">
         <v>455964.4</v>
       </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -773,22 +923,31 @@
       <c r="G4" s="4">
         <v>456074.4</v>
       </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>